--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/59_Muğla_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/59_Muğla_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{562B2E8A-6E71-4F8D-84A3-5216A35BD59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{446885B9-690E-4D25-A4D2-167CEB0EC6F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{ADCAF424-BAEC-4DBC-A7F0-22ACFEA35479}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="672" xr2:uid="{6AE62B9F-4E7F-4E9E-B4F6-2D81AD110DD4}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -943,13 +943,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{9BCBEF15-1E96-4001-80E7-929A58820EF6}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{E41F706E-4666-40E6-9F64-7F5DA26752EF}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{B2916475-E8AF-4F78-9F4C-0CE8A3D04326}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{05CC7608-1F6D-4462-9ED6-28C513C4D104}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{CC578ED9-33E3-4272-A874-2FF96FFE980C}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{336C7EE0-E6D0-448D-8CCD-FA9D6663C9B3}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{849856B3-A2A3-4805-8F4E-10234415D8B1}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{C9FD7FFF-F88E-4882-A30B-AEB5F7CE000C}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{1C8D7385-CE1D-402D-B969-FE586AF96B0A}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{494A9AD8-9247-4451-B7D2-E59C72FD5AF5}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{13C36AD3-19F7-4B9F-A340-AB8B7E816DA9}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{20BA0BB7-0800-4617-90C9-1618B2608B85}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{A1793916-0D0C-4DDF-A3F4-6E60384B1BE1}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{94CF748B-4D5D-49CD-B384-F265E684D12B}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1319,7 +1319,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{392E92E9-1EA1-44BF-A08A-88CEFBE86C08}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7C944E-0946-4E7A-99CE-759D4122C087}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2646,7 +2646,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB331F2F-6BAE-4451-9D3A-55C33726A683}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{119AC466-F781-4699-8A3E-8D60F7209EB4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3957,7 +3957,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D808FA3-60CE-41B0-B907-D5DA17F44D6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE4ABC8D-97CF-4877-BDC8-26966E9BEE08}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5268,7 +5268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA1B0E07-F595-49D3-B59A-4C04BE3B8F2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49023D45-D8DB-4732-87D9-B0213892C6E5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6579,7 +6579,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5962BD97-EAF5-4DC8-9352-D0FD019E1676}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0024DA-51C9-4AAC-9D67-0D98F53AFCD6}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7906,7 +7906,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFD8952C-7A95-446C-B1E8-76F24A257615}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{540C3549-993F-4F91-849C-5461E02CDFA3}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9231,7 +9231,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{217314D8-8712-4CEF-9C65-A064625B1DBE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3363F6A1-39BF-4A6B-A007-653681045786}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10556,7 +10556,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35F26699-BD2B-4DFF-ADC9-8953CB86958C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F01F1CE6-837E-4EB6-A279-4C100FA00B99}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11879,7 +11879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BE7736D-3C67-407A-8884-CB8C087A1BBA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB274866-5FD2-4583-8661-3DAF58352B5E}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13196,7 +13196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B507A66B-ABA8-4321-9DEF-F777EABBDD93}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B838581-29C3-4A7C-9D6F-827F14B05E80}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14507,7 +14507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E574197D-3B9B-4364-81F9-B31737A14944}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{130804D6-BDAB-430B-9BCB-4066811ACFD9}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -15818,7 +15818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48362A90-BF5E-4B4E-8BEA-18D8185B449E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD894351-D44B-409E-8EE4-53ED648DD21B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
